--- a/data/136/ECB/Euribor 3-month_historical.xlsx
+++ b/data/136/ECB/Euribor 3-month_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RZ2"/>
+  <dimension ref="A1:SC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2832,6 +2832,21 @@
           <t>2021-11</t>
         </is>
       </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4986,6 +5001,21 @@
       <c r="RZ2" t="inlineStr">
         <is>
           <t>-0.5674</t>
+        </is>
+      </c>
+      <c r="SA2" t="inlineStr">
+        <is>
+          <t>-0.5820</t>
+        </is>
+      </c>
+      <c r="SB2" t="inlineStr">
+        <is>
+          <t>-0.5601</t>
+        </is>
+      </c>
+      <c r="SC2" t="inlineStr">
+        <is>
+          <t>-0.4950</t>
         </is>
       </c>
     </row>
